--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N2">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q2">
-        <v>140.5851659704556</v>
+        <v>0.02443289835555556</v>
       </c>
       <c r="R2">
-        <v>1265.2664937341</v>
+        <v>0.2198960852</v>
       </c>
       <c r="S2">
-        <v>0.04831952636054432</v>
+        <v>0.002467598594411439</v>
       </c>
       <c r="T2">
-        <v>0.04831952636054432</v>
+        <v>0.002467598594411439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.439567</v>
       </c>
       <c r="O3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q3">
-        <v>36.50863155531778</v>
+        <v>0.06477971524055556</v>
       </c>
       <c r="R3">
-        <v>328.57768399786</v>
+        <v>0.583017437165</v>
       </c>
       <c r="S3">
-        <v>0.01254812179256028</v>
+        <v>0.006542422104319088</v>
       </c>
       <c r="T3">
-        <v>0.01254812179256028</v>
+        <v>0.006542422104319088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N4">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q4">
-        <v>2612.47112971724</v>
+        <v>0.5235388364777778</v>
       </c>
       <c r="R4">
-        <v>23512.24016745516</v>
+        <v>4.7118495283</v>
       </c>
       <c r="S4">
-        <v>0.8979138499225554</v>
+        <v>0.05287476247035653</v>
       </c>
       <c r="T4">
-        <v>0.8979138499225554</v>
+        <v>0.05287476247035653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N5">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q5">
-        <v>1.727212861898333</v>
+        <v>0.1691756577866667</v>
       </c>
       <c r="R5">
-        <v>15.544915757085</v>
+        <v>1.52258092008</v>
       </c>
       <c r="S5">
-        <v>0.0005936480341624857</v>
+        <v>0.01708588188302628</v>
       </c>
       <c r="T5">
-        <v>0.0005936480341624857</v>
+        <v>0.01708588188302628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.439567</v>
       </c>
       <c r="O6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q6">
         <v>0.4485407657156666</v>
@@ -818,10 +818,10 @@
         <v>4.036866891441</v>
       </c>
       <c r="S6">
-        <v>0.0001541647527544378</v>
+        <v>0.04530033837612806</v>
       </c>
       <c r="T6">
-        <v>0.0001541647527544378</v>
+        <v>0.04530033837612806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N7">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q7">
-        <v>32.096513920494</v>
+        <v>3.625031535313333</v>
       </c>
       <c r="R7">
-        <v>288.868625284446</v>
+        <v>32.62528381782</v>
       </c>
       <c r="S7">
-        <v>0.01103166425673112</v>
+        <v>0.366109766883321</v>
       </c>
       <c r="T7">
-        <v>0.01103166425673112</v>
+        <v>0.366109766883321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H8">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N8">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q8">
-        <v>4.316614585457779</v>
+        <v>0.20120414424</v>
       </c>
       <c r="R8">
-        <v>38.84953126912001</v>
+        <v>1.81083729816</v>
       </c>
       <c r="S8">
-        <v>0.001483632862760003</v>
+        <v>0.02032059628339133</v>
       </c>
       <c r="T8">
-        <v>0.001483632862760003</v>
+        <v>0.02032059628339133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H9">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.439567</v>
       </c>
       <c r="O9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q9">
-        <v>1.120983785016889</v>
+        <v>0.533458903623</v>
       </c>
       <c r="R9">
-        <v>10.088854065152</v>
+        <v>4.801130132607</v>
       </c>
       <c r="S9">
-        <v>0.0003852853547951805</v>
+        <v>0.05387663884980996</v>
       </c>
       <c r="T9">
-        <v>0.0003852853547951806</v>
+        <v>0.05387663884980996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H10">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N10">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q10">
-        <v>80.214942343168</v>
+        <v>4.31132573946</v>
       </c>
       <c r="R10">
-        <v>721.934481088512</v>
+        <v>38.80193165514</v>
       </c>
       <c r="S10">
-        <v>0.02757010666313679</v>
+        <v>0.4354219945552364</v>
       </c>
       <c r="T10">
-        <v>0.02757010666313679</v>
+        <v>0.4354219945552364</v>
       </c>
     </row>
   </sheetData>
